--- a/new_modules/Summary_2022-08-05_L2A.xlsx
+++ b/new_modules/Summary_2022-08-05_L2A.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0516</v>
+        <v>0.3254</v>
       </c>
       <c r="C2">
-        <v>-0.0516</v>
+        <v>0.3254</v>
       </c>
       <c r="D2">
-        <v>-0.06950000000000001</v>
+        <v>0.3086000084877014</v>
       </c>
       <c r="E2">
-        <v>0.1671</v>
+        <v>0.5224000215530396</v>
       </c>
       <c r="F2">
-        <v>-0.1994</v>
+        <v>0.1756999939680099</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.07870000000000001</v>
+        <v>0.3977</v>
       </c>
       <c r="C3">
-        <v>-0.07870000000000001</v>
+        <v>0.3977</v>
       </c>
       <c r="D3">
-        <v>-0.09229999999999999</v>
+        <v>0.4076</v>
       </c>
       <c r="E3">
-        <v>0.2385</v>
+        <v>0.6488999724388123</v>
       </c>
       <c r="F3">
-        <v>-0.3038</v>
+        <v>0.1066000014543533</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0529</v>
+        <v>0.3857</v>
       </c>
       <c r="C4">
-        <v>-0.0529</v>
+        <v>0.3857</v>
       </c>
       <c r="D4">
-        <v>-0.0592</v>
+        <v>0.3877</v>
       </c>
       <c r="E4">
-        <v>0.1589</v>
+        <v>0.503600001335144</v>
       </c>
       <c r="F4">
-        <v>-0.1585</v>
+        <v>0.1861999928951263</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0829</v>
+        <v>0.2531</v>
       </c>
       <c r="C5">
-        <v>0.0829</v>
+        <v>0.2531</v>
       </c>
       <c r="D5">
-        <v>0.1022</v>
+        <v>0.2237</v>
       </c>
       <c r="E5">
-        <v>0.2467</v>
+        <v>0.4767000079154968</v>
       </c>
       <c r="F5">
-        <v>-0.1316</v>
+        <v>0.09839999675750732</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.06469999999999999</v>
+        <v>0.2696</v>
       </c>
       <c r="C6">
-        <v>0.06469999999999999</v>
+        <v>0.2696</v>
       </c>
       <c r="D6">
-        <v>0.0582</v>
+        <v>0.2793</v>
       </c>
       <c r="E6">
-        <v>0.2309</v>
+        <v>0.4860999882221222</v>
       </c>
       <c r="F6">
-        <v>-0.1409</v>
+        <v>0.1142000034451485</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0282</v>
+        <v>0.2953</v>
       </c>
       <c r="C7">
-        <v>0.0282</v>
+        <v>0.2953</v>
       </c>
       <c r="D7">
-        <v>0.0283</v>
+        <v>0.3003999888896942</v>
       </c>
       <c r="E7">
-        <v>0.1495</v>
+        <v>0.3982000052928925</v>
       </c>
       <c r="F7">
-        <v>-0.1147</v>
+        <v>0.1956000030040741</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0249</v>
+        <v>0.2883</v>
       </c>
       <c r="C8">
-        <v>0.0249</v>
+        <v>0.2883</v>
       </c>
       <c r="D8">
-        <v>0.0249</v>
+        <v>0.287</v>
       </c>
       <c r="E8">
-        <v>0.1495</v>
+        <v>0.4081999957561493</v>
       </c>
       <c r="F8">
-        <v>-0.1214</v>
+        <v>0.1956000030040741</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-05_L2A.xlsx
+++ b/new_modules/Summary_2022-08-05_L2A.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3254</v>
+        <v>0.0015</v>
       </c>
       <c r="C2">
-        <v>0.3254</v>
+        <v>0.0015</v>
       </c>
       <c r="D2">
-        <v>0.3086000084877014</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5224000215530396</v>
+        <v>0.153099998831749</v>
       </c>
       <c r="F2">
-        <v>0.1756999939680099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3977</v>
+        <v>0.0027</v>
       </c>
       <c r="C3">
-        <v>0.3977</v>
+        <v>0.0027</v>
       </c>
       <c r="D3">
-        <v>0.4076</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6488999724388123</v>
+        <v>0.1934999972581863</v>
       </c>
       <c r="F3">
-        <v>0.1066000014543533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3857</v>
+        <v>0.001</v>
       </c>
       <c r="C4">
-        <v>0.3857</v>
+        <v>0.001</v>
       </c>
       <c r="D4">
-        <v>0.3877</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.503600001335144</v>
+        <v>0.1684000045061111</v>
       </c>
       <c r="F4">
-        <v>0.1861999928951263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2531</v>
+        <v>0.0474</v>
       </c>
       <c r="C5">
-        <v>0.2531</v>
+        <v>0.0474</v>
       </c>
       <c r="D5">
-        <v>0.2237</v>
+        <v>0.0104</v>
       </c>
       <c r="E5">
-        <v>0.4767000079154968</v>
+        <v>0.2856999933719635</v>
       </c>
       <c r="F5">
-        <v>0.09839999675750732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2696</v>
+        <v>0.0234</v>
       </c>
       <c r="C6">
-        <v>0.2696</v>
+        <v>0.0234</v>
       </c>
       <c r="D6">
-        <v>0.2793</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4860999882221222</v>
+        <v>0.256199985742569</v>
       </c>
       <c r="F6">
-        <v>0.1142000034451485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2953</v>
+        <v>0.0021</v>
       </c>
       <c r="C7">
-        <v>0.2953</v>
+        <v>0.0021</v>
       </c>
       <c r="D7">
-        <v>0.3003999888896942</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3982000052928925</v>
+        <v>0.1269000023603439</v>
       </c>
       <c r="F7">
-        <v>0.1956000030040741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2883</v>
+        <v>0.0005</v>
       </c>
       <c r="C8">
-        <v>0.2883</v>
+        <v>0.0005</v>
       </c>
       <c r="D8">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4081999957561493</v>
+        <v>0.07069999724626541</v>
       </c>
       <c r="F8">
-        <v>0.1956000030040741</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-05_L2A.xlsx
+++ b/new_modules/Summary_2022-08-05_L2A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Загон</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>№7</t>
+  </si>
+  <si>
+    <t>Пастбище</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0015</v>
+        <v>2.037400007247925</v>
       </c>
       <c r="C2">
         <v>0.0015</v>
@@ -461,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0027</v>
+        <v>3.324700117111206</v>
       </c>
       <c r="C3">
         <v>0.0027</v>
@@ -481,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.001</v>
+        <v>0.8774999976158142</v>
       </c>
       <c r="C4">
         <v>0.001</v>
@@ -501,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0474</v>
+        <v>44.90380096435547</v>
       </c>
       <c r="C5">
         <v>0.0474</v>
@@ -521,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0234</v>
+        <v>29.61039924621582</v>
       </c>
       <c r="C6">
         <v>0.0234</v>
@@ -541,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0021</v>
+        <v>2.078200101852417</v>
       </c>
       <c r="C7">
         <v>0.0021</v>
@@ -561,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005</v>
+        <v>0.5202999711036682</v>
       </c>
       <c r="C8">
         <v>0.0005</v>
@@ -573,6 +576,26 @@
         <v>0.07069999724626541</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>83.35230255126953</v>
+      </c>
+      <c r="C9">
+        <v>0.0107</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.2856999933719635</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>

--- a/new_modules/Summary_2022-08-05_L2A.xlsx
+++ b/new_modules/Summary_2022-08-05_L2A.xlsx
@@ -444,16 +444,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2.037400007247925</v>
+        <v>7.131700038909912</v>
       </c>
       <c r="C2">
-        <v>0.0015</v>
+        <v>0.0054</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.153099998831749</v>
+        <v>0.5358999967575073</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.324700117111206</v>
+        <v>11.63739967346191</v>
       </c>
       <c r="C3">
-        <v>0.0027</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1934999972581863</v>
+        <v>0.6772000193595886</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.8774999976158142</v>
+        <v>3.071399927139282</v>
       </c>
       <c r="C4">
-        <v>0.001</v>
+        <v>0.0036</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1684000045061111</v>
+        <v>0.5892999768257141</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -504,16 +504,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>44.90380096435547</v>
+        <v>157.1764984130859</v>
       </c>
       <c r="C5">
-        <v>0.0474</v>
+        <v>0.1658</v>
       </c>
       <c r="D5">
-        <v>0.0104</v>
+        <v>0.0364</v>
       </c>
       <c r="E5">
-        <v>0.2856999933719635</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>29.61039924621582</v>
+        <v>103.6449966430664</v>
       </c>
       <c r="C6">
-        <v>0.0234</v>
+        <v>0.082</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.256199985742569</v>
+        <v>0.8968999981880188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2.078200101852417</v>
+        <v>7.274499893188477</v>
       </c>
       <c r="C7">
-        <v>0.0021</v>
+        <v>0.0073</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1269000023603439</v>
+        <v>0.4442000091075897</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5202999711036682</v>
+        <v>1.820999979972839</v>
       </c>
       <c r="C8">
-        <v>0.0005</v>
+        <v>0.0016</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07069999724626541</v>
+        <v>0.2474000006914139</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -584,16 +584,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>83.35230255126953</v>
+        <v>291.7575073242188</v>
       </c>
       <c r="C9">
-        <v>0.0107</v>
+        <v>0.0374</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2856999933719635</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>

--- a/new_modules/Summary_2022-08-05_L2A.xlsx
+++ b/new_modules/Summary_2022-08-05_L2A.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7.131700038909912</v>
+        <v>-404.6565856933594</v>
       </c>
       <c r="C2">
-        <v>0.0054</v>
+        <v>-0.3036</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.1298000067472458</v>
       </c>
       <c r="E2">
-        <v>0.5358999967575073</v>
+        <v>0.4621999859809875</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1.169700026512146</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>11.63739967346191</v>
+        <v>-165.6318054199219</v>
       </c>
       <c r="C3">
-        <v>0.009299999999999999</v>
+        <v>-0.1325</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.0462</v>
       </c>
       <c r="E3">
-        <v>0.6772000193595886</v>
+        <v>0.7084000110626221</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-1.012199997901917</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3.071399927139282</v>
+        <v>-64.75749969482422</v>
       </c>
       <c r="C4">
-        <v>0.0036</v>
+        <v>-0.0757</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.0468</v>
       </c>
       <c r="E4">
-        <v>0.5892999768257141</v>
+        <v>0.6057999730110168</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.5006999969482422</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>157.1764984130859</v>
+        <v>111.1718978881836</v>
       </c>
       <c r="C5">
-        <v>0.1658</v>
+        <v>0.1173</v>
       </c>
       <c r="D5">
-        <v>0.0364</v>
+        <v>0.019</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.068300008773804</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0.3077999949455261</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>103.6449966430664</v>
+        <v>45.53419876098633</v>
       </c>
       <c r="C6">
-        <v>0.082</v>
+        <v>0.036</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0155</v>
       </c>
       <c r="E6">
-        <v>0.8968999981880188</v>
+        <v>0.9750999808311462</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.4165999889373779</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>7.274499893188477</v>
+        <v>-98.08029937744141</v>
       </c>
       <c r="C7">
-        <v>0.0073</v>
+        <v>-0.0988</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.0706000030040741</v>
       </c>
       <c r="E7">
-        <v>0.4442000091075897</v>
+        <v>0.5040000081062317</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0.4607000052928925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1.820999979972839</v>
+        <v>-160.0614013671875</v>
       </c>
       <c r="C8">
-        <v>0.0016</v>
+        <v>-0.1434</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.1189</v>
       </c>
       <c r="E8">
-        <v>0.2474000006914139</v>
+        <v>0.2356999963521957</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-0.6043999791145325</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>291.7575073242188</v>
+        <v>-736.4815063476562</v>
       </c>
       <c r="C9">
-        <v>0.0374</v>
+        <v>-0.0954</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.0452</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>1.068300008773804</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-1.169700026512146</v>
       </c>
     </row>
   </sheetData>
